--- a/ANN_Stopping_Grid/Data3/Optimised_Networks/Predictions/BEST/2_4-8_152_0.006_300 predictions_manual_offline 6 BEST.xlsx
+++ b/ANN_Stopping_Grid/Data3/Optimised_Networks/Predictions/BEST/2_4-8_152_0.006_300 predictions_manual_offline 6 BEST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN_Stopping_Grid\Data3\Optimised_Networks\Predictions\BEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E249C498-D2AE-46E4-B043-509EFCBFA8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D022FA-E9B0-4E57-A4C5-58D4F81241D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9203,7 +9203,7 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7">
-        <f t="shared" ref="X31:X42" si="3">ABS((J16-B16)/J16)</f>
+        <f t="shared" ref="X31:X41" si="3">ABS((J16-B16)/J16)</f>
         <v>0.22934114530358493</v>
       </c>
       <c r="Y31" s="7">
@@ -9217,7 +9217,7 @@
     </row>
     <row r="32" spans="1:26" ht="18.75">
       <c r="S32" s="7">
-        <f t="shared" ref="S31:S41" si="4">ABS((J4-B4)/J4)</f>
+        <f t="shared" ref="S32:S41" si="4">ABS((J4-B4)/J4)</f>
         <v>8.9898636369043813E-2</v>
       </c>
       <c r="T32" s="7">
